--- a/myframework/TestData/TestData.xlsx
+++ b/myframework/TestData/TestData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Xpath" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>secret_sauce</t>
   </si>
@@ -28,6 +28,42 @@
   </si>
   <si>
     <t>Rami</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>(//div//following::input)[1]</t>
+  </si>
+  <si>
+    <t>(//div//following::input)[2]</t>
+  </si>
+  <si>
+    <t>(//div//following::input)[3]</t>
+  </si>
+  <si>
+    <t>CartPage</t>
+  </si>
+  <si>
+    <t>CheckOutPage</t>
+  </si>
+  <si>
+    <t>FinishPage</t>
+  </si>
+  <si>
+    <t>(//div[text()='Sauce Labs Onesie']//following::button[text()='Add to cart'])[1]</t>
+  </si>
+  <si>
+    <t>(//div//following::a)[5]</t>
+  </si>
+  <si>
+    <t>(//div//following::button)[4]</t>
+  </si>
+  <si>
+    <t>(//div//following::input)[4]</t>
+  </si>
+  <si>
+    <t>(//div//following::span[text()='Checkout: Overview']//following::button)[2]</t>
   </si>
 </sst>
 </file>
@@ -368,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -403,12 +439,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="72.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
